--- a/Mapeamento P1/Felipe/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Felipe/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="879" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="285" windowWidth="14700" windowHeight="5415" tabRatio="879"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
     <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
     <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
-    <sheet name="Desenho do Mapa P2" sheetId="18" r:id="rId5"/>
-    <sheet name="Mapeamento - P2" sheetId="17" r:id="rId6"/>
+    <sheet name="Desenho - ATU_ODS_REMUN_DOCENTE" sheetId="18" r:id="rId5"/>
+    <sheet name="Map - ATU_ODS_REMUN_DOCENTE F1" sheetId="17" r:id="rId6"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -1130,8 +1130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1976,6 +1976,66 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1985,107 +2045,86 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2095,45 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2157,7 +2157,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2187,7 +2187,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2254,7 +2254,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2302,7 +2302,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2325,14 +2325,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2375,7 +2375,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2398,14 +2398,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2419,98 +2419,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>32</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
-          <xdr:row>49</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18435" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s18435"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19457" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s19457"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2600,7 +2508,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2635,7 +2542,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2811,17 +2717,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="15" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="15" customWidth="1"/>
@@ -2830,13 +2736,13 @@
     <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="116" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1">
+      <c r="C2" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="116"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" s="110"/>
+    </row>
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="16" t="s">
         <v>131</v>
       </c>
@@ -2844,22 +2750,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="C5" s="16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="D7" s="42"/>
@@ -2870,143 +2776,135 @@
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="120" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="120"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="43" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126" t="s">
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="29" t="s">
         <v>75</v>
       </c>
       <c r="C12" s="28">
         <v>41236</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="125" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="111"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="132"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3017,6 +2915,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3026,7 +2932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3034,7 +2940,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="15" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="15" customWidth="1"/>
@@ -3043,7 +2949,7 @@
     <col min="5" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="16" t="s">
         <v>58</v>
       </c>
@@ -3052,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="16" t="s">
         <v>131</v>
       </c>
@@ -3061,7 +2967,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -3072,142 +2978,142 @@
       <c r="I4" s="42"/>
       <c r="J4" s="42"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="134" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="50" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="138"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="89" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="134"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="89" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="89" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="134"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="89" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="89" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="89" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="89" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3218,20 +3124,20 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="138" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="46" t="s">
         <v>62</v>
       </c>
@@ -3241,31 +3147,31 @@
       <c r="D18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="141" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="145"/>
-      <c r="G18" s="143" t="s">
+      <c r="F18" s="143"/>
+      <c r="G18" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="145"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="143"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-    </row>
-    <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+    </row>
+    <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3276,14 +3182,14 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="138" t="s">
+    <row r="21" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B21" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="45" t="s">
         <v>63</v>
       </c>
@@ -3294,14 +3200,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="B23" s="88" t="s">
         <v>145</v>
       </c>
       <c r="C23" s="87"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" ht="25.5">
       <c r="B24" s="99" t="s">
         <v>134</v>
       </c>
@@ -3310,7 +3216,7 @@
       </c>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -3321,20 +3227,20 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
+    <row r="26" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B26" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="50" t="s">
         <v>68</v>
       </c>
@@ -3344,52 +3250,61 @@
       <c r="D27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135" t="s">
+      <c r="F27" s="146"/>
+      <c r="G27" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="133"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="133"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="133"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D9:J9"/>
@@ -3406,15 +3321,6 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3425,67 +3331,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>32</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>49</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="18435" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF82"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I46" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3519,52 +3398,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="D1" s="77"/>
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
       <c r="U1" s="54"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3648,7 +3527,7 @@
       </c>
       <c r="AC3" s="40"/>
     </row>
-    <row r="4" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B4" s="67" t="s">
         <v>119</v>
       </c>
@@ -3710,7 +3589,7 @@
       <c r="AB4" s="67"/>
       <c r="AC4" s="67"/>
     </row>
-    <row r="5" spans="2:29" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" s="11" customFormat="1" ht="24">
       <c r="B5" s="67" t="s">
         <v>119</v>
       </c>
@@ -3772,7 +3651,7 @@
       <c r="AB5" s="67"/>
       <c r="AC5" s="67"/>
     </row>
-    <row r="6" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B6" s="67" t="s">
         <v>119</v>
       </c>
@@ -3834,7 +3713,7 @@
       <c r="AB6" s="67"/>
       <c r="AC6" s="67"/>
     </row>
-    <row r="7" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" s="14" customFormat="1" ht="12">
       <c r="B7" s="67" t="s">
         <v>119</v>
       </c>
@@ -3892,7 +3771,7 @@
       <c r="AB7" s="67"/>
       <c r="AC7" s="67"/>
     </row>
-    <row r="8" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B8" s="67" t="s">
         <v>119</v>
       </c>
@@ -3950,7 +3829,7 @@
       <c r="AB8" s="67"/>
       <c r="AC8" s="67"/>
     </row>
-    <row r="9" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B9" s="67" t="s">
         <v>119</v>
       </c>
@@ -4012,7 +3891,7 @@
       <c r="AB9" s="69"/>
       <c r="AC9" s="69"/>
     </row>
-    <row r="10" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B10" s="67" t="s">
         <v>119</v>
       </c>
@@ -4074,7 +3953,7 @@
       <c r="AB10" s="69"/>
       <c r="AC10" s="69"/>
     </row>
-    <row r="11" spans="2:29" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:29" s="11" customFormat="1" ht="12">
       <c r="B11" s="67" t="s">
         <v>119</v>
       </c>
@@ -4136,7 +4015,7 @@
       <c r="AB11" s="69"/>
       <c r="AC11" s="69"/>
     </row>
-    <row r="12" spans="2:29" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:29" s="10" customFormat="1" ht="12">
       <c r="B12" s="67" t="s">
         <v>119</v>
       </c>
@@ -4198,7 +4077,7 @@
       <c r="AB12" s="69"/>
       <c r="AC12" s="69"/>
     </row>
-    <row r="13" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29" s="14" customFormat="1" ht="12">
       <c r="B13" s="67" t="s">
         <v>119</v>
       </c>
@@ -4264,7 +4143,7 @@
       <c r="AB13" s="69"/>
       <c r="AC13" s="69"/>
     </row>
-    <row r="14" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29" s="14" customFormat="1" ht="12">
       <c r="B14" s="67" t="s">
         <v>119</v>
       </c>
@@ -4330,7 +4209,7 @@
       <c r="AB14" s="69"/>
       <c r="AC14" s="69"/>
     </row>
-    <row r="15" spans="2:29" s="14" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29" s="14" customFormat="1" ht="12">
       <c r="B15" s="67" t="s">
         <v>119</v>
       </c>
@@ -4396,7 +4275,7 @@
       <c r="AB15" s="69"/>
       <c r="AC15" s="69"/>
     </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29" s="3" customFormat="1">
       <c r="B16" s="67" t="s">
         <v>119</v>
       </c>
@@ -4458,7 +4337,7 @@
       <c r="AB16" s="67"/>
       <c r="AC16" s="67"/>
     </row>
-    <row r="17" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29" s="3" customFormat="1">
       <c r="B17" s="67" t="s">
         <v>119</v>
       </c>
@@ -4520,7 +4399,7 @@
       <c r="AB17" s="67"/>
       <c r="AC17" s="67"/>
     </row>
-    <row r="18" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29" s="3" customFormat="1">
       <c r="B18" s="67" t="s">
         <v>119</v>
       </c>
@@ -4582,7 +4461,7 @@
       <c r="AB18" s="67"/>
       <c r="AC18" s="67"/>
     </row>
-    <row r="19" spans="2:29" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B19" s="67" t="s">
         <v>119</v>
       </c>
@@ -4648,7 +4527,7 @@
       <c r="AB19" s="67"/>
       <c r="AC19" s="67"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29">
       <c r="B20" s="67" t="s">
         <v>119</v>
       </c>
@@ -4710,7 +4589,7 @@
       <c r="AB20" s="67"/>
       <c r="AC20" s="67"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="B21" s="67" t="s">
         <v>119</v>
       </c>
@@ -4772,7 +4651,7 @@
       <c r="AB21" s="67"/>
       <c r="AC21" s="67"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29">
       <c r="B22" s="67" t="s">
         <v>119</v>
       </c>
@@ -4834,7 +4713,7 @@
       <c r="AB22" s="67"/>
       <c r="AC22" s="67"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29">
       <c r="B23" s="67" t="s">
         <v>119</v>
       </c>
@@ -4896,7 +4775,7 @@
       <c r="AB23" s="67"/>
       <c r="AC23" s="67"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29">
       <c r="B24" s="67" t="s">
         <v>119</v>
       </c>
@@ -4958,7 +4837,7 @@
       <c r="AB24" s="67"/>
       <c r="AC24" s="67"/>
     </row>
-    <row r="25" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29" ht="24">
       <c r="B25" s="67" t="s">
         <v>119</v>
       </c>
@@ -5020,7 +4899,7 @@
       <c r="AB25" s="67"/>
       <c r="AC25" s="67"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29">
       <c r="B26" s="67" t="s">
         <v>119</v>
       </c>
@@ -5082,7 +4961,7 @@
       <c r="AB26" s="67"/>
       <c r="AC26" s="67"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29">
       <c r="B27" s="67" t="s">
         <v>119</v>
       </c>
@@ -5144,7 +5023,7 @@
       <c r="AB27" s="67"/>
       <c r="AC27" s="67"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29">
       <c r="B28" s="67" t="s">
         <v>119</v>
       </c>
@@ -5206,7 +5085,7 @@
       <c r="AB28" s="67"/>
       <c r="AC28" s="67"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29">
       <c r="B29" s="67" t="s">
         <v>119</v>
       </c>
@@ -5268,7 +5147,7 @@
       <c r="AB29" s="67"/>
       <c r="AC29" s="67"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29">
       <c r="B30" s="67" t="s">
         <v>119</v>
       </c>
@@ -5330,7 +5209,7 @@
       <c r="AB30" s="67"/>
       <c r="AC30" s="67"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29">
       <c r="B31" s="67" t="s">
         <v>119</v>
       </c>
@@ -5392,7 +5271,7 @@
       <c r="AB31" s="67"/>
       <c r="AC31" s="67"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29">
       <c r="B32" s="67" t="s">
         <v>119</v>
       </c>
@@ -5454,7 +5333,7 @@
       <c r="AB32" s="67"/>
       <c r="AC32" s="67"/>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29">
       <c r="B33" s="67" t="s">
         <v>119</v>
       </c>
@@ -5516,7 +5395,7 @@
       <c r="AB33" s="67"/>
       <c r="AC33" s="67"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34" s="67" t="s">
         <v>119</v>
       </c>
@@ -5578,7 +5457,7 @@
       <c r="AB34" s="67"/>
       <c r="AC34" s="67"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29">
       <c r="B35" s="100"/>
       <c r="C35" s="100"/>
       <c r="D35" s="101"/>
@@ -5632,7 +5511,7 @@
       <c r="AB35" s="67"/>
       <c r="AC35" s="67"/>
     </row>
-    <row r="36" spans="2:29" ht="192" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29" ht="192">
       <c r="B36" s="67" t="s">
         <v>119</v>
       </c>
@@ -5698,7 +5577,7 @@
       <c r="AB36" s="67"/>
       <c r="AC36" s="67"/>
     </row>
-    <row r="37" spans="2:29" ht="156" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" ht="156">
       <c r="B37" s="103"/>
       <c r="C37" s="103"/>
       <c r="D37" s="104"/>
@@ -5754,7 +5633,7 @@
       <c r="AB37" s="67"/>
       <c r="AC37" s="67"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29">
       <c r="B38" s="67" t="s">
         <v>119</v>
       </c>
@@ -5783,40 +5662,40 @@
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="150" t="s">
+      <c r="N38" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="153"/>
-      <c r="P38" s="153"/>
-      <c r="Q38" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="S38" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="T38" s="150" t="s">
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="S38" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="T38" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="U38" s="150" t="s">
+      <c r="U38" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="V38" s="147"/>
-      <c r="W38" s="147"/>
-      <c r="X38" s="147" t="s">
+      <c r="V38" s="160"/>
+      <c r="W38" s="160"/>
+      <c r="X38" s="160" t="s">
         <v>127</v>
       </c>
-      <c r="Y38" s="147">
+      <c r="Y38" s="160">
         <v>30</v>
       </c>
-      <c r="Z38" s="147"/>
-      <c r="AA38" s="147"/>
-      <c r="AB38" s="147"/>
-      <c r="AC38" s="147"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z38" s="160"/>
+      <c r="AA38" s="160"/>
+      <c r="AB38" s="160"/>
+      <c r="AC38" s="160"/>
+    </row>
+    <row r="39" spans="2:29">
       <c r="B39" s="103"/>
       <c r="C39" s="103"/>
       <c r="D39" s="103"/>
@@ -5831,28 +5710,28 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="154"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S39" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="148"/>
-      <c r="W39" s="148"/>
-      <c r="X39" s="148"/>
-      <c r="Y39" s="148"/>
-      <c r="Z39" s="148"/>
-      <c r="AA39" s="148"/>
-      <c r="AB39" s="148"/>
-      <c r="AC39" s="148"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N39" s="154"/>
+      <c r="O39" s="148"/>
+      <c r="P39" s="148"/>
+      <c r="Q39" s="154"/>
+      <c r="R39" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S39" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="154"/>
+      <c r="U39" s="154"/>
+      <c r="V39" s="161"/>
+      <c r="W39" s="161"/>
+      <c r="X39" s="161"/>
+      <c r="Y39" s="161"/>
+      <c r="Z39" s="161"/>
+      <c r="AA39" s="161"/>
+      <c r="AB39" s="161"/>
+      <c r="AC39" s="161"/>
+    </row>
+    <row r="40" spans="2:29">
       <c r="B40" s="103"/>
       <c r="C40" s="103"/>
       <c r="D40" s="103"/>
@@ -5867,28 +5746,28 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="154"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S40" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="148"/>
-      <c r="W40" s="148"/>
-      <c r="X40" s="148"/>
-      <c r="Y40" s="148"/>
-      <c r="Z40" s="148"/>
-      <c r="AA40" s="148"/>
-      <c r="AB40" s="148"/>
-      <c r="AC40" s="148"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N40" s="154"/>
+      <c r="O40" s="148"/>
+      <c r="P40" s="148"/>
+      <c r="Q40" s="154"/>
+      <c r="R40" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S40" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T40" s="154"/>
+      <c r="U40" s="154"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="161"/>
+      <c r="Y40" s="161"/>
+      <c r="Z40" s="161"/>
+      <c r="AA40" s="161"/>
+      <c r="AB40" s="161"/>
+      <c r="AC40" s="161"/>
+    </row>
+    <row r="41" spans="2:29">
       <c r="B41" s="67" t="s">
         <v>119</v>
       </c>
@@ -5917,28 +5796,28 @@
       </c>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="154"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S41" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="148"/>
-      <c r="W41" s="148"/>
-      <c r="X41" s="148"/>
-      <c r="Y41" s="148"/>
-      <c r="Z41" s="148"/>
-      <c r="AA41" s="148"/>
-      <c r="AB41" s="148"/>
-      <c r="AC41" s="148"/>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N41" s="154"/>
+      <c r="O41" s="148"/>
+      <c r="P41" s="148"/>
+      <c r="Q41" s="154"/>
+      <c r="R41" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S41" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T41" s="154"/>
+      <c r="U41" s="154"/>
+      <c r="V41" s="161"/>
+      <c r="W41" s="161"/>
+      <c r="X41" s="161"/>
+      <c r="Y41" s="161"/>
+      <c r="Z41" s="161"/>
+      <c r="AA41" s="161"/>
+      <c r="AB41" s="161"/>
+      <c r="AC41" s="161"/>
+    </row>
+    <row r="42" spans="2:29">
       <c r="B42" s="67" t="s">
         <v>119</v>
       </c>
@@ -5967,28 +5846,28 @@
       </c>
       <c r="L42" s="67"/>
       <c r="M42" s="67"/>
-      <c r="N42" s="151"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="151"/>
-      <c r="R42" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S42" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T42" s="151"/>
-      <c r="U42" s="151"/>
-      <c r="V42" s="148"/>
-      <c r="W42" s="148"/>
-      <c r="X42" s="148"/>
-      <c r="Y42" s="148"/>
-      <c r="Z42" s="148"/>
-      <c r="AA42" s="148"/>
-      <c r="AB42" s="148"/>
-      <c r="AC42" s="148"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N42" s="154"/>
+      <c r="O42" s="148"/>
+      <c r="P42" s="148"/>
+      <c r="Q42" s="154"/>
+      <c r="R42" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S42" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42" s="154"/>
+      <c r="U42" s="154"/>
+      <c r="V42" s="161"/>
+      <c r="W42" s="161"/>
+      <c r="X42" s="161"/>
+      <c r="Y42" s="161"/>
+      <c r="Z42" s="161"/>
+      <c r="AA42" s="161"/>
+      <c r="AB42" s="161"/>
+      <c r="AC42" s="161"/>
+    </row>
+    <row r="43" spans="2:29">
       <c r="B43" s="67" t="s">
         <v>119</v>
       </c>
@@ -6017,28 +5896,28 @@
       </c>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="154"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S43" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T43" s="151"/>
-      <c r="U43" s="151"/>
-      <c r="V43" s="148"/>
-      <c r="W43" s="148"/>
-      <c r="X43" s="148"/>
-      <c r="Y43" s="148"/>
-      <c r="Z43" s="148"/>
-      <c r="AA43" s="148"/>
-      <c r="AB43" s="148"/>
-      <c r="AC43" s="148"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N43" s="154"/>
+      <c r="O43" s="148"/>
+      <c r="P43" s="148"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S43" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T43" s="154"/>
+      <c r="U43" s="154"/>
+      <c r="V43" s="161"/>
+      <c r="W43" s="161"/>
+      <c r="X43" s="161"/>
+      <c r="Y43" s="161"/>
+      <c r="Z43" s="161"/>
+      <c r="AA43" s="161"/>
+      <c r="AB43" s="161"/>
+      <c r="AC43" s="161"/>
+    </row>
+    <row r="44" spans="2:29">
       <c r="B44" s="67" t="s">
         <v>119</v>
       </c>
@@ -6067,28 +5946,28 @@
       </c>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
-      <c r="N44" s="151"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="154"/>
-      <c r="Q44" s="151"/>
-      <c r="R44" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S44" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T44" s="151"/>
-      <c r="U44" s="151"/>
-      <c r="V44" s="148"/>
-      <c r="W44" s="148"/>
-      <c r="X44" s="148"/>
-      <c r="Y44" s="148"/>
-      <c r="Z44" s="148"/>
-      <c r="AA44" s="148"/>
-      <c r="AB44" s="148"/>
-      <c r="AC44" s="148"/>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N44" s="154"/>
+      <c r="O44" s="148"/>
+      <c r="P44" s="148"/>
+      <c r="Q44" s="154"/>
+      <c r="R44" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S44" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T44" s="154"/>
+      <c r="U44" s="154"/>
+      <c r="V44" s="161"/>
+      <c r="W44" s="161"/>
+      <c r="X44" s="161"/>
+      <c r="Y44" s="161"/>
+      <c r="Z44" s="161"/>
+      <c r="AA44" s="161"/>
+      <c r="AB44" s="161"/>
+      <c r="AC44" s="161"/>
+    </row>
+    <row r="45" spans="2:29">
       <c r="B45" s="67" t="s">
         <v>119</v>
       </c>
@@ -6117,28 +5996,28 @@
       </c>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="154"/>
-      <c r="P45" s="154"/>
-      <c r="Q45" s="151"/>
-      <c r="R45" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S45" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T45" s="151"/>
-      <c r="U45" s="151"/>
-      <c r="V45" s="148"/>
-      <c r="W45" s="148"/>
-      <c r="X45" s="148"/>
-      <c r="Y45" s="148"/>
-      <c r="Z45" s="148"/>
-      <c r="AA45" s="148"/>
-      <c r="AB45" s="148"/>
-      <c r="AC45" s="148"/>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N45" s="154"/>
+      <c r="O45" s="148"/>
+      <c r="P45" s="148"/>
+      <c r="Q45" s="154"/>
+      <c r="R45" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S45" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T45" s="154"/>
+      <c r="U45" s="154"/>
+      <c r="V45" s="161"/>
+      <c r="W45" s="161"/>
+      <c r="X45" s="161"/>
+      <c r="Y45" s="161"/>
+      <c r="Z45" s="161"/>
+      <c r="AA45" s="161"/>
+      <c r="AB45" s="161"/>
+      <c r="AC45" s="161"/>
+    </row>
+    <row r="46" spans="2:29">
       <c r="B46" s="67" t="s">
         <v>119</v>
       </c>
@@ -6167,28 +6046,28 @@
       </c>
       <c r="L46" s="67"/>
       <c r="M46" s="67"/>
-      <c r="N46" s="151"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="154"/>
-      <c r="Q46" s="151"/>
-      <c r="R46" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S46" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T46" s="151"/>
-      <c r="U46" s="151"/>
-      <c r="V46" s="148"/>
-      <c r="W46" s="148"/>
-      <c r="X46" s="148"/>
-      <c r="Y46" s="148"/>
-      <c r="Z46" s="148"/>
-      <c r="AA46" s="148"/>
-      <c r="AB46" s="148"/>
-      <c r="AC46" s="148"/>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N46" s="154"/>
+      <c r="O46" s="148"/>
+      <c r="P46" s="148"/>
+      <c r="Q46" s="154"/>
+      <c r="R46" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S46" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T46" s="154"/>
+      <c r="U46" s="154"/>
+      <c r="V46" s="161"/>
+      <c r="W46" s="161"/>
+      <c r="X46" s="161"/>
+      <c r="Y46" s="161"/>
+      <c r="Z46" s="161"/>
+      <c r="AA46" s="161"/>
+      <c r="AB46" s="161"/>
+      <c r="AC46" s="161"/>
+    </row>
+    <row r="47" spans="2:29">
       <c r="B47" s="67" t="s">
         <v>119</v>
       </c>
@@ -6217,28 +6096,28 @@
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="154"/>
-      <c r="P47" s="154"/>
-      <c r="Q47" s="151"/>
-      <c r="R47" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S47" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T47" s="151"/>
-      <c r="U47" s="151"/>
-      <c r="V47" s="148"/>
-      <c r="W47" s="148"/>
-      <c r="X47" s="148"/>
-      <c r="Y47" s="148"/>
-      <c r="Z47" s="148"/>
-      <c r="AA47" s="148"/>
-      <c r="AB47" s="148"/>
-      <c r="AC47" s="148"/>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N47" s="154"/>
+      <c r="O47" s="148"/>
+      <c r="P47" s="148"/>
+      <c r="Q47" s="154"/>
+      <c r="R47" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S47" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T47" s="154"/>
+      <c r="U47" s="154"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="161"/>
+      <c r="X47" s="161"/>
+      <c r="Y47" s="161"/>
+      <c r="Z47" s="161"/>
+      <c r="AA47" s="161"/>
+      <c r="AB47" s="161"/>
+      <c r="AC47" s="161"/>
+    </row>
+    <row r="48" spans="2:29">
       <c r="B48" s="67" t="s">
         <v>119</v>
       </c>
@@ -6267,28 +6146,28 @@
       </c>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="155"/>
-      <c r="P48" s="155"/>
-      <c r="Q48" s="152"/>
-      <c r="R48" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="S48" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="T48" s="152"/>
-      <c r="U48" s="152"/>
-      <c r="V48" s="149"/>
-      <c r="W48" s="149"/>
-      <c r="X48" s="149"/>
-      <c r="Y48" s="149"/>
-      <c r="Z48" s="149"/>
-      <c r="AA48" s="149"/>
-      <c r="AB48" s="149"/>
-      <c r="AC48" s="149"/>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N48" s="155"/>
+      <c r="O48" s="149"/>
+      <c r="P48" s="149"/>
+      <c r="Q48" s="155"/>
+      <c r="R48" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="S48" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="T48" s="155"/>
+      <c r="U48" s="155"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
+      <c r="Y48" s="162"/>
+      <c r="Z48" s="162"/>
+      <c r="AA48" s="162"/>
+      <c r="AB48" s="162"/>
+      <c r="AC48" s="162"/>
+    </row>
+    <row r="49" spans="2:29">
       <c r="B49" s="67" t="s">
         <v>119</v>
       </c>
@@ -6317,40 +6196,40 @@
       </c>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
-      <c r="N49" s="150" t="s">
+      <c r="N49" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="O49" s="153"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="150" t="s">
-        <v>120</v>
-      </c>
-      <c r="R49" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="S49" s="150" t="s">
-        <v>145</v>
-      </c>
-      <c r="T49" s="150" t="s">
+      <c r="O49" s="147"/>
+      <c r="P49" s="147"/>
+      <c r="Q49" s="153" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="S49" s="153" t="s">
+        <v>145</v>
+      </c>
+      <c r="T49" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="U49" s="150" t="s">
+      <c r="U49" s="153" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="147"/>
-      <c r="W49" s="147"/>
-      <c r="X49" s="147" t="s">
+      <c r="V49" s="160"/>
+      <c r="W49" s="160"/>
+      <c r="X49" s="160" t="s">
         <v>127</v>
       </c>
-      <c r="Y49" s="147">
+      <c r="Y49" s="160">
         <v>15</v>
       </c>
-      <c r="Z49" s="147"/>
-      <c r="AA49" s="147"/>
-      <c r="AB49" s="147"/>
-      <c r="AC49" s="147"/>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z49" s="160"/>
+      <c r="AA49" s="160"/>
+      <c r="AB49" s="160"/>
+      <c r="AC49" s="160"/>
+    </row>
+    <row r="50" spans="2:29">
       <c r="B50" s="67" t="s">
         <v>119</v>
       </c>
@@ -6379,28 +6258,28 @@
       </c>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
-      <c r="N50" s="151"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="154"/>
-      <c r="Q50" s="151"/>
-      <c r="R50" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S50" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T50" s="151"/>
-      <c r="U50" s="151"/>
-      <c r="V50" s="148"/>
-      <c r="W50" s="148"/>
-      <c r="X50" s="148"/>
-      <c r="Y50" s="148"/>
-      <c r="Z50" s="148"/>
-      <c r="AA50" s="148"/>
-      <c r="AB50" s="148"/>
-      <c r="AC50" s="148"/>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N50" s="154"/>
+      <c r="O50" s="148"/>
+      <c r="P50" s="148"/>
+      <c r="Q50" s="154"/>
+      <c r="R50" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S50" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T50" s="154"/>
+      <c r="U50" s="154"/>
+      <c r="V50" s="161"/>
+      <c r="W50" s="161"/>
+      <c r="X50" s="161"/>
+      <c r="Y50" s="161"/>
+      <c r="Z50" s="161"/>
+      <c r="AA50" s="161"/>
+      <c r="AB50" s="161"/>
+      <c r="AC50" s="161"/>
+    </row>
+    <row r="51" spans="2:29">
       <c r="B51" s="67" t="s">
         <v>119</v>
       </c>
@@ -6429,28 +6308,28 @@
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
-      <c r="N51" s="151"/>
-      <c r="O51" s="154"/>
-      <c r="P51" s="154"/>
-      <c r="Q51" s="151"/>
-      <c r="R51" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S51" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T51" s="151"/>
-      <c r="U51" s="151"/>
-      <c r="V51" s="148"/>
-      <c r="W51" s="148"/>
-      <c r="X51" s="148"/>
-      <c r="Y51" s="148"/>
-      <c r="Z51" s="148"/>
-      <c r="AA51" s="148"/>
-      <c r="AB51" s="148"/>
-      <c r="AC51" s="148"/>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N51" s="154"/>
+      <c r="O51" s="148"/>
+      <c r="P51" s="148"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S51" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="161"/>
+      <c r="W51" s="161"/>
+      <c r="X51" s="161"/>
+      <c r="Y51" s="161"/>
+      <c r="Z51" s="161"/>
+      <c r="AA51" s="161"/>
+      <c r="AB51" s="161"/>
+      <c r="AC51" s="161"/>
+    </row>
+    <row r="52" spans="2:29">
       <c r="B52" s="67" t="s">
         <v>119</v>
       </c>
@@ -6479,28 +6358,28 @@
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
-      <c r="N52" s="151"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="154"/>
-      <c r="Q52" s="151"/>
-      <c r="R52" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S52" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T52" s="151"/>
-      <c r="U52" s="151"/>
-      <c r="V52" s="148"/>
-      <c r="W52" s="148"/>
-      <c r="X52" s="148"/>
-      <c r="Y52" s="148"/>
-      <c r="Z52" s="148"/>
-      <c r="AA52" s="148"/>
-      <c r="AB52" s="148"/>
-      <c r="AC52" s="148"/>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N52" s="154"/>
+      <c r="O52" s="148"/>
+      <c r="P52" s="148"/>
+      <c r="Q52" s="154"/>
+      <c r="R52" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S52" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T52" s="154"/>
+      <c r="U52" s="154"/>
+      <c r="V52" s="161"/>
+      <c r="W52" s="161"/>
+      <c r="X52" s="161"/>
+      <c r="Y52" s="161"/>
+      <c r="Z52" s="161"/>
+      <c r="AA52" s="161"/>
+      <c r="AB52" s="161"/>
+      <c r="AC52" s="161"/>
+    </row>
+    <row r="53" spans="2:29">
       <c r="B53" s="67" t="s">
         <v>119</v>
       </c>
@@ -6529,28 +6408,28 @@
       </c>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
-      <c r="N53" s="151"/>
-      <c r="O53" s="154"/>
-      <c r="P53" s="154"/>
-      <c r="Q53" s="151"/>
-      <c r="R53" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S53" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T53" s="151"/>
-      <c r="U53" s="151"/>
-      <c r="V53" s="148"/>
-      <c r="W53" s="148"/>
-      <c r="X53" s="148"/>
-      <c r="Y53" s="148"/>
-      <c r="Z53" s="148"/>
-      <c r="AA53" s="148"/>
-      <c r="AB53" s="148"/>
-      <c r="AC53" s="148"/>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N53" s="154"/>
+      <c r="O53" s="148"/>
+      <c r="P53" s="148"/>
+      <c r="Q53" s="154"/>
+      <c r="R53" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S53" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T53" s="154"/>
+      <c r="U53" s="154"/>
+      <c r="V53" s="161"/>
+      <c r="W53" s="161"/>
+      <c r="X53" s="161"/>
+      <c r="Y53" s="161"/>
+      <c r="Z53" s="161"/>
+      <c r="AA53" s="161"/>
+      <c r="AB53" s="161"/>
+      <c r="AC53" s="161"/>
+    </row>
+    <row r="54" spans="2:29">
       <c r="B54" s="103"/>
       <c r="C54" s="103"/>
       <c r="D54" s="103"/>
@@ -6571,28 +6450,28 @@
       </c>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
-      <c r="N54" s="151"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="154"/>
-      <c r="Q54" s="151"/>
-      <c r="R54" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S54" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T54" s="151"/>
-      <c r="U54" s="151"/>
-      <c r="V54" s="148"/>
-      <c r="W54" s="148"/>
-      <c r="X54" s="148"/>
-      <c r="Y54" s="148"/>
-      <c r="Z54" s="148"/>
-      <c r="AA54" s="148"/>
-      <c r="AB54" s="148"/>
-      <c r="AC54" s="148"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N54" s="154"/>
+      <c r="O54" s="148"/>
+      <c r="P54" s="148"/>
+      <c r="Q54" s="154"/>
+      <c r="R54" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S54" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T54" s="154"/>
+      <c r="U54" s="154"/>
+      <c r="V54" s="161"/>
+      <c r="W54" s="161"/>
+      <c r="X54" s="161"/>
+      <c r="Y54" s="161"/>
+      <c r="Z54" s="161"/>
+      <c r="AA54" s="161"/>
+      <c r="AB54" s="161"/>
+      <c r="AC54" s="161"/>
+    </row>
+    <row r="55" spans="2:29">
       <c r="B55" s="67" t="s">
         <v>119</v>
       </c>
@@ -6621,28 +6500,28 @@
       </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
-      <c r="N55" s="151"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="154"/>
-      <c r="Q55" s="151"/>
-      <c r="R55" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="S55" s="151" t="s">
-        <v>145</v>
-      </c>
-      <c r="T55" s="151"/>
-      <c r="U55" s="151"/>
-      <c r="V55" s="148"/>
-      <c r="W55" s="148"/>
-      <c r="X55" s="148"/>
-      <c r="Y55" s="148"/>
-      <c r="Z55" s="148"/>
-      <c r="AA55" s="148"/>
-      <c r="AB55" s="148"/>
-      <c r="AC55" s="148"/>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N55" s="154"/>
+      <c r="O55" s="148"/>
+      <c r="P55" s="148"/>
+      <c r="Q55" s="154"/>
+      <c r="R55" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="S55" s="154" t="s">
+        <v>145</v>
+      </c>
+      <c r="T55" s="154"/>
+      <c r="U55" s="154"/>
+      <c r="V55" s="161"/>
+      <c r="W55" s="161"/>
+      <c r="X55" s="161"/>
+      <c r="Y55" s="161"/>
+      <c r="Z55" s="161"/>
+      <c r="AA55" s="161"/>
+      <c r="AB55" s="161"/>
+      <c r="AC55" s="161"/>
+    </row>
+    <row r="56" spans="2:29">
       <c r="B56" s="67" t="s">
         <v>119</v>
       </c>
@@ -6671,28 +6550,28 @@
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
-      <c r="N56" s="152"/>
-      <c r="O56" s="155"/>
-      <c r="P56" s="155"/>
-      <c r="Q56" s="152"/>
-      <c r="R56" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="S56" s="152" t="s">
-        <v>145</v>
-      </c>
-      <c r="T56" s="152"/>
-      <c r="U56" s="152"/>
-      <c r="V56" s="149"/>
-      <c r="W56" s="149"/>
-      <c r="X56" s="149"/>
-      <c r="Y56" s="149"/>
-      <c r="Z56" s="149"/>
-      <c r="AA56" s="149"/>
-      <c r="AB56" s="149"/>
-      <c r="AC56" s="149"/>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N56" s="155"/>
+      <c r="O56" s="149"/>
+      <c r="P56" s="149"/>
+      <c r="Q56" s="155"/>
+      <c r="R56" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="S56" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="T56" s="155"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="162"/>
+      <c r="W56" s="162"/>
+      <c r="X56" s="162"/>
+      <c r="Y56" s="162"/>
+      <c r="Z56" s="162"/>
+      <c r="AA56" s="162"/>
+      <c r="AB56" s="162"/>
+      <c r="AC56" s="162"/>
+    </row>
+    <row r="57" spans="2:29">
       <c r="B57" s="90"/>
       <c r="C57" s="90"/>
       <c r="D57" s="91"/>
@@ -6740,7 +6619,7 @@
       <c r="AB57" s="86"/>
       <c r="AC57" s="86"/>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:29">
       <c r="B58" s="90"/>
       <c r="C58" s="90"/>
       <c r="D58" s="91"/>
@@ -6788,7 +6667,7 @@
       <c r="AB58" s="86"/>
       <c r="AC58" s="86"/>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:29">
       <c r="B59" s="90"/>
       <c r="C59" s="90"/>
       <c r="D59" s="91"/>
@@ -6832,7 +6711,7 @@
       <c r="AB59" s="86"/>
       <c r="AC59" s="86"/>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:29">
       <c r="B60" s="58"/>
       <c r="C60" s="58"/>
       <c r="D60" s="59"/>
@@ -6855,7 +6734,7 @@
       <c r="U60" s="62"/>
       <c r="V60" s="58"/>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:29">
       <c r="B61" s="58"/>
       <c r="C61" s="58"/>
       <c r="D61" s="59"/>
@@ -6878,7 +6757,7 @@
       <c r="U61" s="62"/>
       <c r="V61" s="58"/>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:29">
       <c r="B62" s="58"/>
       <c r="C62" s="58"/>
       <c r="D62" s="59"/>
@@ -6901,7 +6780,7 @@
       <c r="U62" s="62"/>
       <c r="V62" s="58"/>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:29">
       <c r="B63" s="58"/>
       <c r="C63" s="58"/>
       <c r="D63" s="59"/>
@@ -6924,7 +6803,7 @@
       <c r="U63" s="62"/>
       <c r="V63" s="58"/>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:29">
       <c r="B64" s="58"/>
       <c r="C64" s="58"/>
       <c r="D64" s="59"/>
@@ -6947,7 +6826,7 @@
       <c r="U64" s="62"/>
       <c r="V64" s="58"/>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:22">
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
       <c r="D65" s="59"/>
@@ -6970,7 +6849,7 @@
       <c r="U65" s="62"/>
       <c r="V65" s="58"/>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:22">
       <c r="B66" s="58"/>
       <c r="C66" s="58"/>
       <c r="D66" s="59"/>
@@ -6993,7 +6872,7 @@
       <c r="U66" s="62"/>
       <c r="V66" s="58"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22">
       <c r="B67" s="58"/>
       <c r="C67" s="58"/>
       <c r="D67" s="59"/>
@@ -7016,7 +6895,7 @@
       <c r="U67" s="62"/>
       <c r="V67" s="58"/>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:22">
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
       <c r="D68" s="59"/>
@@ -7039,7 +6918,7 @@
       <c r="U68" s="62"/>
       <c r="V68" s="58"/>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:22">
       <c r="B69" s="58"/>
       <c r="C69" s="58"/>
       <c r="D69" s="59"/>
@@ -7062,7 +6941,7 @@
       <c r="U69" s="62"/>
       <c r="V69" s="58"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:22">
       <c r="B70" s="58"/>
       <c r="C70" s="58"/>
       <c r="D70" s="59"/>
@@ -7085,7 +6964,7 @@
       <c r="U70" s="62"/>
       <c r="V70" s="58"/>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22">
       <c r="B71" s="58"/>
       <c r="C71" s="58"/>
       <c r="D71" s="59"/>
@@ -7108,7 +6987,7 @@
       <c r="U71" s="62"/>
       <c r="V71" s="58"/>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:22">
       <c r="B72" s="58"/>
       <c r="C72" s="58"/>
       <c r="D72" s="59"/>
@@ -7131,7 +7010,7 @@
       <c r="U72" s="62"/>
       <c r="V72" s="58"/>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22">
       <c r="B73" s="58"/>
       <c r="C73" s="58"/>
       <c r="D73" s="59"/>
@@ -7154,7 +7033,7 @@
       <c r="U73" s="62"/>
       <c r="V73" s="58"/>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:22">
       <c r="B74" s="58"/>
       <c r="C74" s="58"/>
       <c r="D74" s="59"/>
@@ -7177,7 +7056,7 @@
       <c r="U74" s="62"/>
       <c r="V74" s="58"/>
     </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:22">
       <c r="B75" s="58"/>
       <c r="C75" s="58"/>
       <c r="D75" s="59"/>
@@ -7200,7 +7079,7 @@
       <c r="U75" s="62"/>
       <c r="V75" s="58"/>
     </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:22">
       <c r="B76" s="58"/>
       <c r="C76" s="58"/>
       <c r="D76" s="59"/>
@@ -7223,7 +7102,7 @@
       <c r="U76" s="62"/>
       <c r="V76" s="58"/>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22">
       <c r="B77" s="58"/>
       <c r="C77" s="58"/>
       <c r="D77" s="59"/>
@@ -7246,7 +7125,7 @@
       <c r="U77" s="62"/>
       <c r="V77" s="58"/>
     </row>
-    <row r="78" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:22">
       <c r="B78" s="58"/>
       <c r="C78" s="58"/>
       <c r="D78" s="59"/>
@@ -7269,7 +7148,7 @@
       <c r="U78" s="62"/>
       <c r="V78" s="58"/>
     </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:22">
       <c r="B79" s="58"/>
       <c r="C79" s="58"/>
       <c r="D79" s="59"/>
@@ -7292,7 +7171,7 @@
       <c r="U79" s="62"/>
       <c r="V79" s="58"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22">
       <c r="B80" s="58"/>
       <c r="C80" s="58"/>
       <c r="D80" s="59"/>
@@ -7315,7 +7194,7 @@
       <c r="U80" s="62"/>
       <c r="V80" s="58"/>
     </row>
-    <row r="81" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:22">
       <c r="B81" s="58"/>
       <c r="C81" s="58"/>
       <c r="D81" s="59"/>
@@ -7338,7 +7217,7 @@
       <c r="U81" s="62"/>
       <c r="V81" s="58"/>
     </row>
-    <row r="82" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:22">
       <c r="B82" s="58"/>
       <c r="C82" s="58"/>
       <c r="D82" s="59"/>
@@ -7363,6 +7242,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="Y49:Y56"/>
+    <mergeCell ref="Z49:Z56"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AB49:AB56"/>
+    <mergeCell ref="AC49:AC56"/>
+    <mergeCell ref="Y38:Y48"/>
+    <mergeCell ref="Z38:Z48"/>
+    <mergeCell ref="AA38:AA48"/>
+    <mergeCell ref="AB38:AB48"/>
+    <mergeCell ref="AC38:AC48"/>
+    <mergeCell ref="T49:T56"/>
+    <mergeCell ref="U38:U48"/>
+    <mergeCell ref="V38:V48"/>
+    <mergeCell ref="W38:W48"/>
+    <mergeCell ref="X38:X48"/>
+    <mergeCell ref="U49:U56"/>
+    <mergeCell ref="V49:V56"/>
+    <mergeCell ref="W49:W56"/>
+    <mergeCell ref="X49:X56"/>
     <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="N49:N56"/>
@@ -7379,25 +7277,6 @@
     <mergeCell ref="T38:T48"/>
     <mergeCell ref="S38:S48"/>
     <mergeCell ref="S49:S56"/>
-    <mergeCell ref="T49:T56"/>
-    <mergeCell ref="U38:U48"/>
-    <mergeCell ref="V38:V48"/>
-    <mergeCell ref="W38:W48"/>
-    <mergeCell ref="X38:X48"/>
-    <mergeCell ref="U49:U56"/>
-    <mergeCell ref="V49:V56"/>
-    <mergeCell ref="W49:W56"/>
-    <mergeCell ref="X49:X56"/>
-    <mergeCell ref="Y38:Y48"/>
-    <mergeCell ref="Z38:Z48"/>
-    <mergeCell ref="AA38:AA48"/>
-    <mergeCell ref="AB38:AB48"/>
-    <mergeCell ref="AC38:AC48"/>
-    <mergeCell ref="Y49:Y56"/>
-    <mergeCell ref="Z49:Z56"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AB49:AB56"/>
-    <mergeCell ref="AC49:AC56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7407,53 +7286,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="19457" r:id="rId2"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7466,7 +7318,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7499,52 +7351,52 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33">
       <c r="D1" s="77"/>
       <c r="R1" s="54"/>
       <c r="S1" s="54"/>
       <c r="T1" s="54"/>
       <c r="U1" s="54"/>
     </row>
-    <row r="2" spans="1:33" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="159" t="s">
+    <row r="2" spans="1:33" ht="25.5" customHeight="1">
+      <c r="B2" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="158"/>
+      <c r="P2" s="159"/>
+      <c r="Q2" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="152"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7628,7 +7480,7 @@
       </c>
       <c r="AC3" s="40"/>
     </row>
-    <row r="4" spans="1:33" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="3" customFormat="1" ht="48">
       <c r="A4" s="2"/>
       <c r="B4" s="71" t="s">
         <v>119</v>
@@ -7692,7 +7544,7 @@
       <c r="AC4" s="86"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:33" ht="84" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="84">
       <c r="B5" s="71" t="s">
         <v>119</v>
       </c>
@@ -7754,7 +7606,7 @@
       <c r="AB5" s="86"/>
       <c r="AC5" s="86"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33">
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
       <c r="D6" s="59"/>
@@ -7777,7 +7629,7 @@
       <c r="U6" s="62"/>
       <c r="V6" s="58"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33">
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
       <c r="D7" s="59"/>
@@ -7800,7 +7652,7 @@
       <c r="U7" s="62"/>
       <c r="V7" s="58"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33">
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
       <c r="D8" s="59"/>
@@ -7823,7 +7675,7 @@
       <c r="U8" s="62"/>
       <c r="V8" s="58"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33">
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
       <c r="D9" s="59"/>
@@ -7846,7 +7698,7 @@
       <c r="U9" s="62"/>
       <c r="V9" s="58"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33">
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
       <c r="D10" s="59"/>
@@ -7869,7 +7721,7 @@
       <c r="U10" s="62"/>
       <c r="V10" s="58"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33">
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
       <c r="D11" s="59"/>
@@ -7906,7 +7758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7914,7 +7766,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="15" customWidth="1"/>
@@ -7922,7 +7774,7 @@
     <col min="4" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="22"/>
@@ -7942,7 +7794,7 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="21"/>
@@ -7962,7 +7814,7 @@
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="19" t="s">
         <v>50</v>
       </c>
@@ -7987,7 +7839,7 @@
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
       <c r="E4" s="17"/>
@@ -8009,7 +7861,7 @@
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="36" t="s">
         <v>51</v>
       </c>
@@ -8017,7 +7869,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
@@ -8025,7 +7877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="31" t="s">
         <v>46</v>
       </c>
@@ -8033,7 +7885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="31" t="s">
         <v>44</v>
       </c>
@@ -8041,7 +7893,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="31" t="s">
         <v>42</v>
       </c>
@@ -8049,7 +7901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="31" t="s">
         <v>40</v>
       </c>
@@ -8057,7 +7909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="31" t="s">
         <v>38</v>
       </c>
@@ -8065,7 +7917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="31" t="s">
         <v>36</v>
       </c>
@@ -8073,7 +7925,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="31" t="s">
         <v>34</v>
       </c>
@@ -8081,7 +7933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="31" t="s">
         <v>32</v>
       </c>
@@ -8089,7 +7941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
@@ -8097,7 +7949,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="31" t="s">
         <v>28</v>
       </c>
@@ -8105,7 +7957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="31" t="s">
         <v>26</v>
       </c>
@@ -8113,7 +7965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="32" t="s">
         <v>24</v>
       </c>
@@ -8121,7 +7973,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="31" t="s">
         <v>22</v>
       </c>
@@ -8129,7 +7981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="31" t="s">
         <v>20</v>
       </c>
@@ -8137,7 +7989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
@@ -8145,7 +7997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
@@ -8164,10 +8016,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8216,7 +8064,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8225,21 +8083,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8254,15 +8098,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8275,4 +8119,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mapeamento P1/Felipe/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Felipe/Mapeamento Técnico - APURACAO_ATUACAO_VARIAVEL - ATUALIZADO.xlsx
@@ -1976,6 +1976,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1988,15 +2006,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2036,14 +2045,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2057,9 +2066,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2081,11 +2087,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2105,15 +2123,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2125,15 +2134,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2302,7 +2302,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2325,14 +2325,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2375,7 +2375,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2398,14 +2398,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2723,9 +2723,7 @@
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:F12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2737,10 +2735,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="116"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="16" t="s">
@@ -2778,28 +2776,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="120" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="118"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="120"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="122"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="43" t="s">
@@ -2808,17 +2806,17 @@
       <c r="C11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="126" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="29" t="s">
@@ -2827,84 +2825,92 @@
       <c r="C12" s="28">
         <v>41236</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="27"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="25"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="115"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="25"/>
       <c r="C16" s="24"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="25"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="132"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="25"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="132"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -2915,14 +2921,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -2980,17 +2978,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
-      <c r="F6" s="137"/>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="50" t="s">
@@ -2999,119 +2997,119 @@
       <c r="C7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="89" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="51"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="89" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="51"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="89" t="s">
         <v>112</v>
       </c>
       <c r="C11" s="51"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="89" t="s">
         <v>133</v>
       </c>
       <c r="C12" s="51"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="89" t="s">
         <v>113</v>
       </c>
       <c r="C13" s="51"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="89" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="51"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="89" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="51"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
@@ -3125,17 +3123,17 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="46" t="s">
@@ -3147,16 +3145,16 @@
       <c r="D18" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="141" t="s">
+      <c r="E18" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="141" t="s">
+      <c r="F18" s="145"/>
+      <c r="G18" s="143" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
@@ -3164,12 +3162,12 @@
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
@@ -3183,11 +3181,11 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="45" t="s">
@@ -3228,17 +3226,17 @@
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="137"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="50" t="s">
@@ -3250,61 +3248,52 @@
       <c r="D27" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="146" t="s">
+      <c r="E27" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146" t="s">
+      <c r="F27" s="135"/>
+      <c r="G27" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="12"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="133"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="12"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="133"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="12"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D9:J9"/>
@@ -3321,6 +3310,15 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3334,7 +3332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3358,7 +3356,7 @@
   <dimension ref="B1:AF82"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -3406,39 +3404,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="2:29">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="150" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="152"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -5662,38 +5660,38 @@
       </c>
       <c r="L38" s="67"/>
       <c r="M38" s="67"/>
-      <c r="N38" s="153" t="s">
+      <c r="N38" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="147"/>
-      <c r="P38" s="147"/>
-      <c r="Q38" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="S38" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="T38" s="153" t="s">
+      <c r="O38" s="153"/>
+      <c r="P38" s="153"/>
+      <c r="Q38" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="S38" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="T38" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="U38" s="153" t="s">
+      <c r="U38" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="V38" s="160"/>
-      <c r="W38" s="160"/>
-      <c r="X38" s="160" t="s">
+      <c r="V38" s="147"/>
+      <c r="W38" s="147"/>
+      <c r="X38" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="Y38" s="160">
+      <c r="Y38" s="147">
         <v>30</v>
       </c>
-      <c r="Z38" s="160"/>
-      <c r="AA38" s="160"/>
-      <c r="AB38" s="160"/>
-      <c r="AC38" s="160"/>
+      <c r="Z38" s="147"/>
+      <c r="AA38" s="147"/>
+      <c r="AB38" s="147"/>
+      <c r="AC38" s="147"/>
     </row>
     <row r="39" spans="2:29">
       <c r="B39" s="103"/>
@@ -5710,26 +5708,26 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="154"/>
-      <c r="O39" s="148"/>
-      <c r="P39" s="148"/>
-      <c r="Q39" s="154"/>
-      <c r="R39" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S39" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T39" s="154"/>
-      <c r="U39" s="154"/>
-      <c r="V39" s="161"/>
-      <c r="W39" s="161"/>
-      <c r="X39" s="161"/>
-      <c r="Y39" s="161"/>
-      <c r="Z39" s="161"/>
-      <c r="AA39" s="161"/>
-      <c r="AB39" s="161"/>
-      <c r="AC39" s="161"/>
+      <c r="N39" s="151"/>
+      <c r="O39" s="154"/>
+      <c r="P39" s="154"/>
+      <c r="Q39" s="151"/>
+      <c r="R39" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S39" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T39" s="151"/>
+      <c r="U39" s="151"/>
+      <c r="V39" s="148"/>
+      <c r="W39" s="148"/>
+      <c r="X39" s="148"/>
+      <c r="Y39" s="148"/>
+      <c r="Z39" s="148"/>
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="148"/>
+      <c r="AC39" s="148"/>
     </row>
     <row r="40" spans="2:29">
       <c r="B40" s="103"/>
@@ -5746,26 +5744,26 @@
       <c r="K40" s="67"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="148"/>
-      <c r="P40" s="148"/>
-      <c r="Q40" s="154"/>
-      <c r="R40" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S40" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T40" s="154"/>
-      <c r="U40" s="154"/>
-      <c r="V40" s="161"/>
-      <c r="W40" s="161"/>
-      <c r="X40" s="161"/>
-      <c r="Y40" s="161"/>
-      <c r="Z40" s="161"/>
-      <c r="AA40" s="161"/>
-      <c r="AB40" s="161"/>
-      <c r="AC40" s="161"/>
+      <c r="N40" s="151"/>
+      <c r="O40" s="154"/>
+      <c r="P40" s="154"/>
+      <c r="Q40" s="151"/>
+      <c r="R40" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S40" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T40" s="151"/>
+      <c r="U40" s="151"/>
+      <c r="V40" s="148"/>
+      <c r="W40" s="148"/>
+      <c r="X40" s="148"/>
+      <c r="Y40" s="148"/>
+      <c r="Z40" s="148"/>
+      <c r="AA40" s="148"/>
+      <c r="AB40" s="148"/>
+      <c r="AC40" s="148"/>
     </row>
     <row r="41" spans="2:29">
       <c r="B41" s="67" t="s">
@@ -5796,26 +5794,26 @@
       </c>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
-      <c r="N41" s="154"/>
-      <c r="O41" s="148"/>
-      <c r="P41" s="148"/>
-      <c r="Q41" s="154"/>
-      <c r="R41" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S41" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T41" s="154"/>
-      <c r="U41" s="154"/>
-      <c r="V41" s="161"/>
-      <c r="W41" s="161"/>
-      <c r="X41" s="161"/>
-      <c r="Y41" s="161"/>
-      <c r="Z41" s="161"/>
-      <c r="AA41" s="161"/>
-      <c r="AB41" s="161"/>
-      <c r="AC41" s="161"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="154"/>
+      <c r="P41" s="154"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S41" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T41" s="151"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="148"/>
+      <c r="W41" s="148"/>
+      <c r="X41" s="148"/>
+      <c r="Y41" s="148"/>
+      <c r="Z41" s="148"/>
+      <c r="AA41" s="148"/>
+      <c r="AB41" s="148"/>
+      <c r="AC41" s="148"/>
     </row>
     <row r="42" spans="2:29">
       <c r="B42" s="67" t="s">
@@ -5846,26 +5844,26 @@
       </c>
       <c r="L42" s="67"/>
       <c r="M42" s="67"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="148"/>
-      <c r="P42" s="148"/>
-      <c r="Q42" s="154"/>
-      <c r="R42" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S42" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T42" s="154"/>
-      <c r="U42" s="154"/>
-      <c r="V42" s="161"/>
-      <c r="W42" s="161"/>
-      <c r="X42" s="161"/>
-      <c r="Y42" s="161"/>
-      <c r="Z42" s="161"/>
-      <c r="AA42" s="161"/>
-      <c r="AB42" s="161"/>
-      <c r="AC42" s="161"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="154"/>
+      <c r="P42" s="154"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S42" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T42" s="151"/>
+      <c r="U42" s="151"/>
+      <c r="V42" s="148"/>
+      <c r="W42" s="148"/>
+      <c r="X42" s="148"/>
+      <c r="Y42" s="148"/>
+      <c r="Z42" s="148"/>
+      <c r="AA42" s="148"/>
+      <c r="AB42" s="148"/>
+      <c r="AC42" s="148"/>
     </row>
     <row r="43" spans="2:29">
       <c r="B43" s="67" t="s">
@@ -5896,26 +5894,26 @@
       </c>
       <c r="L43" s="67"/>
       <c r="M43" s="67"/>
-      <c r="N43" s="154"/>
-      <c r="O43" s="148"/>
-      <c r="P43" s="148"/>
-      <c r="Q43" s="154"/>
-      <c r="R43" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S43" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T43" s="154"/>
-      <c r="U43" s="154"/>
-      <c r="V43" s="161"/>
-      <c r="W43" s="161"/>
-      <c r="X43" s="161"/>
-      <c r="Y43" s="161"/>
-      <c r="Z43" s="161"/>
-      <c r="AA43" s="161"/>
-      <c r="AB43" s="161"/>
-      <c r="AC43" s="161"/>
+      <c r="N43" s="151"/>
+      <c r="O43" s="154"/>
+      <c r="P43" s="154"/>
+      <c r="Q43" s="151"/>
+      <c r="R43" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S43" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T43" s="151"/>
+      <c r="U43" s="151"/>
+      <c r="V43" s="148"/>
+      <c r="W43" s="148"/>
+      <c r="X43" s="148"/>
+      <c r="Y43" s="148"/>
+      <c r="Z43" s="148"/>
+      <c r="AA43" s="148"/>
+      <c r="AB43" s="148"/>
+      <c r="AC43" s="148"/>
     </row>
     <row r="44" spans="2:29">
       <c r="B44" s="67" t="s">
@@ -5946,26 +5944,26 @@
       </c>
       <c r="L44" s="67"/>
       <c r="M44" s="67"/>
-      <c r="N44" s="154"/>
-      <c r="O44" s="148"/>
-      <c r="P44" s="148"/>
-      <c r="Q44" s="154"/>
-      <c r="R44" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S44" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T44" s="154"/>
-      <c r="U44" s="154"/>
-      <c r="V44" s="161"/>
-      <c r="W44" s="161"/>
-      <c r="X44" s="161"/>
-      <c r="Y44" s="161"/>
-      <c r="Z44" s="161"/>
-      <c r="AA44" s="161"/>
-      <c r="AB44" s="161"/>
-      <c r="AC44" s="161"/>
+      <c r="N44" s="151"/>
+      <c r="O44" s="154"/>
+      <c r="P44" s="154"/>
+      <c r="Q44" s="151"/>
+      <c r="R44" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S44" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T44" s="151"/>
+      <c r="U44" s="151"/>
+      <c r="V44" s="148"/>
+      <c r="W44" s="148"/>
+      <c r="X44" s="148"/>
+      <c r="Y44" s="148"/>
+      <c r="Z44" s="148"/>
+      <c r="AA44" s="148"/>
+      <c r="AB44" s="148"/>
+      <c r="AC44" s="148"/>
     </row>
     <row r="45" spans="2:29">
       <c r="B45" s="67" t="s">
@@ -5996,26 +5994,26 @@
       </c>
       <c r="L45" s="67"/>
       <c r="M45" s="67"/>
-      <c r="N45" s="154"/>
-      <c r="O45" s="148"/>
-      <c r="P45" s="148"/>
-      <c r="Q45" s="154"/>
-      <c r="R45" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S45" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T45" s="154"/>
-      <c r="U45" s="154"/>
-      <c r="V45" s="161"/>
-      <c r="W45" s="161"/>
-      <c r="X45" s="161"/>
-      <c r="Y45" s="161"/>
-      <c r="Z45" s="161"/>
-      <c r="AA45" s="161"/>
-      <c r="AB45" s="161"/>
-      <c r="AC45" s="161"/>
+      <c r="N45" s="151"/>
+      <c r="O45" s="154"/>
+      <c r="P45" s="154"/>
+      <c r="Q45" s="151"/>
+      <c r="R45" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S45" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T45" s="151"/>
+      <c r="U45" s="151"/>
+      <c r="V45" s="148"/>
+      <c r="W45" s="148"/>
+      <c r="X45" s="148"/>
+      <c r="Y45" s="148"/>
+      <c r="Z45" s="148"/>
+      <c r="AA45" s="148"/>
+      <c r="AB45" s="148"/>
+      <c r="AC45" s="148"/>
     </row>
     <row r="46" spans="2:29">
       <c r="B46" s="67" t="s">
@@ -6046,26 +6044,26 @@
       </c>
       <c r="L46" s="67"/>
       <c r="M46" s="67"/>
-      <c r="N46" s="154"/>
-      <c r="O46" s="148"/>
-      <c r="P46" s="148"/>
-      <c r="Q46" s="154"/>
-      <c r="R46" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S46" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T46" s="154"/>
-      <c r="U46" s="154"/>
-      <c r="V46" s="161"/>
-      <c r="W46" s="161"/>
-      <c r="X46" s="161"/>
-      <c r="Y46" s="161"/>
-      <c r="Z46" s="161"/>
-      <c r="AA46" s="161"/>
-      <c r="AB46" s="161"/>
-      <c r="AC46" s="161"/>
+      <c r="N46" s="151"/>
+      <c r="O46" s="154"/>
+      <c r="P46" s="154"/>
+      <c r="Q46" s="151"/>
+      <c r="R46" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S46" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T46" s="151"/>
+      <c r="U46" s="151"/>
+      <c r="V46" s="148"/>
+      <c r="W46" s="148"/>
+      <c r="X46" s="148"/>
+      <c r="Y46" s="148"/>
+      <c r="Z46" s="148"/>
+      <c r="AA46" s="148"/>
+      <c r="AB46" s="148"/>
+      <c r="AC46" s="148"/>
     </row>
     <row r="47" spans="2:29">
       <c r="B47" s="67" t="s">
@@ -6096,26 +6094,26 @@
       </c>
       <c r="L47" s="67"/>
       <c r="M47" s="67"/>
-      <c r="N47" s="154"/>
-      <c r="O47" s="148"/>
-      <c r="P47" s="148"/>
-      <c r="Q47" s="154"/>
-      <c r="R47" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S47" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T47" s="154"/>
-      <c r="U47" s="154"/>
-      <c r="V47" s="161"/>
-      <c r="W47" s="161"/>
-      <c r="X47" s="161"/>
-      <c r="Y47" s="161"/>
-      <c r="Z47" s="161"/>
-      <c r="AA47" s="161"/>
-      <c r="AB47" s="161"/>
-      <c r="AC47" s="161"/>
+      <c r="N47" s="151"/>
+      <c r="O47" s="154"/>
+      <c r="P47" s="154"/>
+      <c r="Q47" s="151"/>
+      <c r="R47" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S47" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T47" s="151"/>
+      <c r="U47" s="151"/>
+      <c r="V47" s="148"/>
+      <c r="W47" s="148"/>
+      <c r="X47" s="148"/>
+      <c r="Y47" s="148"/>
+      <c r="Z47" s="148"/>
+      <c r="AA47" s="148"/>
+      <c r="AB47" s="148"/>
+      <c r="AC47" s="148"/>
     </row>
     <row r="48" spans="2:29">
       <c r="B48" s="67" t="s">
@@ -6146,26 +6144,26 @@
       </c>
       <c r="L48" s="67"/>
       <c r="M48" s="67"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="149"/>
-      <c r="P48" s="149"/>
-      <c r="Q48" s="155"/>
-      <c r="R48" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="S48" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="T48" s="155"/>
-      <c r="U48" s="155"/>
-      <c r="V48" s="162"/>
-      <c r="W48" s="162"/>
-      <c r="X48" s="162"/>
-      <c r="Y48" s="162"/>
-      <c r="Z48" s="162"/>
-      <c r="AA48" s="162"/>
-      <c r="AB48" s="162"/>
-      <c r="AC48" s="162"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="155"/>
+      <c r="P48" s="155"/>
+      <c r="Q48" s="152"/>
+      <c r="R48" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="S48" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="T48" s="152"/>
+      <c r="U48" s="152"/>
+      <c r="V48" s="149"/>
+      <c r="W48" s="149"/>
+      <c r="X48" s="149"/>
+      <c r="Y48" s="149"/>
+      <c r="Z48" s="149"/>
+      <c r="AA48" s="149"/>
+      <c r="AB48" s="149"/>
+      <c r="AC48" s="149"/>
     </row>
     <row r="49" spans="2:29">
       <c r="B49" s="67" t="s">
@@ -6196,38 +6194,38 @@
       </c>
       <c r="L49" s="67"/>
       <c r="M49" s="67"/>
-      <c r="N49" s="153" t="s">
+      <c r="N49" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="O49" s="147"/>
-      <c r="P49" s="147"/>
-      <c r="Q49" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="R49" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="S49" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="T49" s="153" t="s">
+      <c r="O49" s="153"/>
+      <c r="P49" s="153"/>
+      <c r="Q49" s="150" t="s">
+        <v>120</v>
+      </c>
+      <c r="R49" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="S49" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="T49" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="U49" s="153" t="s">
+      <c r="U49" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="V49" s="160"/>
-      <c r="W49" s="160"/>
-      <c r="X49" s="160" t="s">
+      <c r="V49" s="147"/>
+      <c r="W49" s="147"/>
+      <c r="X49" s="147" t="s">
         <v>127</v>
       </c>
-      <c r="Y49" s="160">
+      <c r="Y49" s="147">
         <v>15</v>
       </c>
-      <c r="Z49" s="160"/>
-      <c r="AA49" s="160"/>
-      <c r="AB49" s="160"/>
-      <c r="AC49" s="160"/>
+      <c r="Z49" s="147"/>
+      <c r="AA49" s="147"/>
+      <c r="AB49" s="147"/>
+      <c r="AC49" s="147"/>
     </row>
     <row r="50" spans="2:29">
       <c r="B50" s="67" t="s">
@@ -6258,26 +6256,26 @@
       </c>
       <c r="L50" s="67"/>
       <c r="M50" s="67"/>
-      <c r="N50" s="154"/>
-      <c r="O50" s="148"/>
-      <c r="P50" s="148"/>
-      <c r="Q50" s="154"/>
-      <c r="R50" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S50" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T50" s="154"/>
-      <c r="U50" s="154"/>
-      <c r="V50" s="161"/>
-      <c r="W50" s="161"/>
-      <c r="X50" s="161"/>
-      <c r="Y50" s="161"/>
-      <c r="Z50" s="161"/>
-      <c r="AA50" s="161"/>
-      <c r="AB50" s="161"/>
-      <c r="AC50" s="161"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="154"/>
+      <c r="P50" s="154"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S50" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="148"/>
+      <c r="W50" s="148"/>
+      <c r="X50" s="148"/>
+      <c r="Y50" s="148"/>
+      <c r="Z50" s="148"/>
+      <c r="AA50" s="148"/>
+      <c r="AB50" s="148"/>
+      <c r="AC50" s="148"/>
     </row>
     <row r="51" spans="2:29">
       <c r="B51" s="67" t="s">
@@ -6308,26 +6306,26 @@
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
-      <c r="N51" s="154"/>
-      <c r="O51" s="148"/>
-      <c r="P51" s="148"/>
-      <c r="Q51" s="154"/>
-      <c r="R51" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S51" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T51" s="154"/>
-      <c r="U51" s="154"/>
-      <c r="V51" s="161"/>
-      <c r="W51" s="161"/>
-      <c r="X51" s="161"/>
-      <c r="Y51" s="161"/>
-      <c r="Z51" s="161"/>
-      <c r="AA51" s="161"/>
-      <c r="AB51" s="161"/>
-      <c r="AC51" s="161"/>
+      <c r="N51" s="151"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="151"/>
+      <c r="R51" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S51" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T51" s="151"/>
+      <c r="U51" s="151"/>
+      <c r="V51" s="148"/>
+      <c r="W51" s="148"/>
+      <c r="X51" s="148"/>
+      <c r="Y51" s="148"/>
+      <c r="Z51" s="148"/>
+      <c r="AA51" s="148"/>
+      <c r="AB51" s="148"/>
+      <c r="AC51" s="148"/>
     </row>
     <row r="52" spans="2:29">
       <c r="B52" s="67" t="s">
@@ -6358,26 +6356,26 @@
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
-      <c r="N52" s="154"/>
-      <c r="O52" s="148"/>
-      <c r="P52" s="148"/>
-      <c r="Q52" s="154"/>
-      <c r="R52" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S52" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T52" s="154"/>
-      <c r="U52" s="154"/>
-      <c r="V52" s="161"/>
-      <c r="W52" s="161"/>
-      <c r="X52" s="161"/>
-      <c r="Y52" s="161"/>
-      <c r="Z52" s="161"/>
-      <c r="AA52" s="161"/>
-      <c r="AB52" s="161"/>
-      <c r="AC52" s="161"/>
+      <c r="N52" s="151"/>
+      <c r="O52" s="154"/>
+      <c r="P52" s="154"/>
+      <c r="Q52" s="151"/>
+      <c r="R52" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S52" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T52" s="151"/>
+      <c r="U52" s="151"/>
+      <c r="V52" s="148"/>
+      <c r="W52" s="148"/>
+      <c r="X52" s="148"/>
+      <c r="Y52" s="148"/>
+      <c r="Z52" s="148"/>
+      <c r="AA52" s="148"/>
+      <c r="AB52" s="148"/>
+      <c r="AC52" s="148"/>
     </row>
     <row r="53" spans="2:29">
       <c r="B53" s="67" t="s">
@@ -6408,26 +6406,26 @@
       </c>
       <c r="L53" s="67"/>
       <c r="M53" s="67"/>
-      <c r="N53" s="154"/>
-      <c r="O53" s="148"/>
-      <c r="P53" s="148"/>
-      <c r="Q53" s="154"/>
-      <c r="R53" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S53" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T53" s="154"/>
-      <c r="U53" s="154"/>
-      <c r="V53" s="161"/>
-      <c r="W53" s="161"/>
-      <c r="X53" s="161"/>
-      <c r="Y53" s="161"/>
-      <c r="Z53" s="161"/>
-      <c r="AA53" s="161"/>
-      <c r="AB53" s="161"/>
-      <c r="AC53" s="161"/>
+      <c r="N53" s="151"/>
+      <c r="O53" s="154"/>
+      <c r="P53" s="154"/>
+      <c r="Q53" s="151"/>
+      <c r="R53" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S53" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T53" s="151"/>
+      <c r="U53" s="151"/>
+      <c r="V53" s="148"/>
+      <c r="W53" s="148"/>
+      <c r="X53" s="148"/>
+      <c r="Y53" s="148"/>
+      <c r="Z53" s="148"/>
+      <c r="AA53" s="148"/>
+      <c r="AB53" s="148"/>
+      <c r="AC53" s="148"/>
     </row>
     <row r="54" spans="2:29">
       <c r="B54" s="103"/>
@@ -6450,26 +6448,26 @@
       </c>
       <c r="L54" s="67"/>
       <c r="M54" s="67"/>
-      <c r="N54" s="154"/>
-      <c r="O54" s="148"/>
-      <c r="P54" s="148"/>
-      <c r="Q54" s="154"/>
-      <c r="R54" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S54" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T54" s="154"/>
-      <c r="U54" s="154"/>
-      <c r="V54" s="161"/>
-      <c r="W54" s="161"/>
-      <c r="X54" s="161"/>
-      <c r="Y54" s="161"/>
-      <c r="Z54" s="161"/>
-      <c r="AA54" s="161"/>
-      <c r="AB54" s="161"/>
-      <c r="AC54" s="161"/>
+      <c r="N54" s="151"/>
+      <c r="O54" s="154"/>
+      <c r="P54" s="154"/>
+      <c r="Q54" s="151"/>
+      <c r="R54" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S54" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T54" s="151"/>
+      <c r="U54" s="151"/>
+      <c r="V54" s="148"/>
+      <c r="W54" s="148"/>
+      <c r="X54" s="148"/>
+      <c r="Y54" s="148"/>
+      <c r="Z54" s="148"/>
+      <c r="AA54" s="148"/>
+      <c r="AB54" s="148"/>
+      <c r="AC54" s="148"/>
     </row>
     <row r="55" spans="2:29">
       <c r="B55" s="67" t="s">
@@ -6500,26 +6498,26 @@
       </c>
       <c r="L55" s="67"/>
       <c r="M55" s="67"/>
-      <c r="N55" s="154"/>
-      <c r="O55" s="148"/>
-      <c r="P55" s="148"/>
-      <c r="Q55" s="154"/>
-      <c r="R55" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="S55" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="T55" s="154"/>
-      <c r="U55" s="154"/>
-      <c r="V55" s="161"/>
-      <c r="W55" s="161"/>
-      <c r="X55" s="161"/>
-      <c r="Y55" s="161"/>
-      <c r="Z55" s="161"/>
-      <c r="AA55" s="161"/>
-      <c r="AB55" s="161"/>
-      <c r="AC55" s="161"/>
+      <c r="N55" s="151"/>
+      <c r="O55" s="154"/>
+      <c r="P55" s="154"/>
+      <c r="Q55" s="151"/>
+      <c r="R55" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="S55" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="T55" s="151"/>
+      <c r="U55" s="151"/>
+      <c r="V55" s="148"/>
+      <c r="W55" s="148"/>
+      <c r="X55" s="148"/>
+      <c r="Y55" s="148"/>
+      <c r="Z55" s="148"/>
+      <c r="AA55" s="148"/>
+      <c r="AB55" s="148"/>
+      <c r="AC55" s="148"/>
     </row>
     <row r="56" spans="2:29">
       <c r="B56" s="67" t="s">
@@ -6550,26 +6548,26 @@
       </c>
       <c r="L56" s="67"/>
       <c r="M56" s="67"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="149"/>
-      <c r="P56" s="149"/>
-      <c r="Q56" s="155"/>
-      <c r="R56" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="S56" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="T56" s="155"/>
-      <c r="U56" s="155"/>
-      <c r="V56" s="162"/>
-      <c r="W56" s="162"/>
-      <c r="X56" s="162"/>
-      <c r="Y56" s="162"/>
-      <c r="Z56" s="162"/>
-      <c r="AA56" s="162"/>
-      <c r="AB56" s="162"/>
-      <c r="AC56" s="162"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="155"/>
+      <c r="P56" s="155"/>
+      <c r="Q56" s="152"/>
+      <c r="R56" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="S56" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="149"/>
+      <c r="W56" s="149"/>
+      <c r="X56" s="149"/>
+      <c r="Y56" s="149"/>
+      <c r="Z56" s="149"/>
+      <c r="AA56" s="149"/>
+      <c r="AB56" s="149"/>
+      <c r="AC56" s="149"/>
     </row>
     <row r="57" spans="2:29">
       <c r="B57" s="90"/>
@@ -7242,25 +7240,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="Y49:Y56"/>
-    <mergeCell ref="Z49:Z56"/>
-    <mergeCell ref="AA49:AA56"/>
-    <mergeCell ref="AB49:AB56"/>
-    <mergeCell ref="AC49:AC56"/>
-    <mergeCell ref="Y38:Y48"/>
-    <mergeCell ref="Z38:Z48"/>
-    <mergeCell ref="AA38:AA48"/>
-    <mergeCell ref="AB38:AB48"/>
-    <mergeCell ref="AC38:AC48"/>
-    <mergeCell ref="T49:T56"/>
-    <mergeCell ref="U38:U48"/>
-    <mergeCell ref="V38:V48"/>
-    <mergeCell ref="W38:W48"/>
-    <mergeCell ref="X38:X48"/>
-    <mergeCell ref="U49:U56"/>
-    <mergeCell ref="V49:V56"/>
-    <mergeCell ref="W49:W56"/>
-    <mergeCell ref="X49:X56"/>
     <mergeCell ref="O49:O56"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="N49:N56"/>
@@ -7277,6 +7256,25 @@
     <mergeCell ref="T38:T48"/>
     <mergeCell ref="S38:S48"/>
     <mergeCell ref="S49:S56"/>
+    <mergeCell ref="T49:T56"/>
+    <mergeCell ref="U38:U48"/>
+    <mergeCell ref="V38:V48"/>
+    <mergeCell ref="W38:W48"/>
+    <mergeCell ref="X38:X48"/>
+    <mergeCell ref="U49:U56"/>
+    <mergeCell ref="V49:V56"/>
+    <mergeCell ref="W49:W56"/>
+    <mergeCell ref="X49:X56"/>
+    <mergeCell ref="Y38:Y48"/>
+    <mergeCell ref="Z38:Z48"/>
+    <mergeCell ref="AA38:AA48"/>
+    <mergeCell ref="AB38:AB48"/>
+    <mergeCell ref="AC38:AC48"/>
+    <mergeCell ref="Y49:Y56"/>
+    <mergeCell ref="Z49:Z56"/>
+    <mergeCell ref="AA49:AA56"/>
+    <mergeCell ref="AB49:AB56"/>
+    <mergeCell ref="AC49:AC56"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7359,39 +7357,39 @@
       <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:33" ht="25.5" customHeight="1">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="157"/>
-      <c r="M2" s="157"/>
-      <c r="N2" s="158" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="150" t="s">
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="151"/>
-      <c r="S2" s="151"/>
-      <c r="T2" s="151"/>
-      <c r="U2" s="151"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="151"/>
-      <c r="X2" s="151"/>
-      <c r="Y2" s="151"/>
-      <c r="Z2" s="151"/>
-      <c r="AA2" s="151"/>
-      <c r="AB2" s="152"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="39" t="s">
         <v>57</v>
       </c>
@@ -8016,6 +8014,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -8064,17 +8066,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -8083,7 +8075,21 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8098,15 +8104,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -8119,12 +8125,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>